--- a/8-supprimer-le-flux-3-de-mise-à-jours/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/8-supprimer-le-flux-3-de-mise-à-jours/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T07:23:43+00:00</t>
+    <t>2025-07-07T07:31:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
